--- a/ValueSet-ppc-what-matters-vs.xlsx
+++ b/ValueSet-ppc-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T00:10:52+00:00</t>
+    <t>2025-01-10T14:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
